--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业企业数.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业企业数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,686 +538,532 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2525</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1310</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5846</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="J2" t="n">
+        <v>473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>862</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6674</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13425</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2485</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1642</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1101</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>157</v>
+      </c>
+      <c r="R2" t="n">
+        <v>237</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1540</v>
+      </c>
+      <c r="T2" t="n">
+        <v>54</v>
+      </c>
       <c r="U2" t="n">
-        <v>9758</v>
+        <v>28189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>833</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2172</v>
+      </c>
+      <c r="F3" t="n">
+        <v>878</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5926</v>
+      </c>
+      <c r="I3" t="n">
+        <v>864</v>
+      </c>
+      <c r="J3" t="n">
+        <v>365</v>
+      </c>
+      <c r="K3" t="n">
+        <v>731</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4791</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10220</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2114</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1313</v>
+      </c>
+      <c r="P3" t="n">
+        <v>990</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>154</v>
+      </c>
+      <c r="R3" t="n">
+        <v>224</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1206</v>
+      </c>
+      <c r="T3" t="n">
+        <v>47</v>
+      </c>
       <c r="U3" t="n">
-        <v>17527</v>
+        <v>21682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3369</v>
+      </c>
+      <c r="D4" t="n">
+        <v>960</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>974</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4343</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6387</v>
+      </c>
+      <c r="I4" t="n">
+        <v>897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>447</v>
+      </c>
+      <c r="K4" t="n">
+        <v>821</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5091</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12215</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2356</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1387</v>
+      </c>
+      <c r="P4" t="n">
+        <v>404</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>157</v>
+      </c>
+      <c r="R4" t="n">
+        <v>304</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1323</v>
+      </c>
+      <c r="T4" t="n">
+        <v>61</v>
+      </c>
       <c r="U4" t="n">
-        <v>25817</v>
+        <v>24636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1510</v>
+        <v>1555</v>
       </c>
       <c r="C5" t="n">
-        <v>4422</v>
+        <v>3623</v>
       </c>
       <c r="D5" t="n">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="E5" t="n">
-        <v>2494</v>
+        <v>2366</v>
       </c>
       <c r="F5" t="n">
-        <v>1262</v>
+        <v>1084</v>
       </c>
       <c r="G5" t="n">
-        <v>5684</v>
+        <v>4707</v>
       </c>
       <c r="H5" t="n">
-        <v>6807</v>
+        <v>6839</v>
       </c>
       <c r="I5" t="n">
-        <v>1088</v>
+        <v>1039</v>
       </c>
       <c r="J5" t="n">
-        <v>477</v>
+        <v>624</v>
       </c>
       <c r="K5" t="n">
-        <v>815</v>
+        <v>889</v>
       </c>
       <c r="L5" t="n">
-        <v>6145</v>
+        <v>5367</v>
       </c>
       <c r="M5" t="n">
-        <v>12831</v>
+        <v>13465</v>
       </c>
       <c r="N5" t="n">
-        <v>2355</v>
+        <v>2593</v>
       </c>
       <c r="O5" t="n">
-        <v>1676</v>
+        <v>1565</v>
       </c>
       <c r="P5" t="n">
-        <v>1291</v>
+        <v>441</v>
       </c>
       <c r="Q5" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R5" t="n">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="S5" t="n">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="T5" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U5" t="n">
-        <v>27218</v>
+        <v>26894</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1550</v>
+        <v>1592</v>
       </c>
       <c r="C6" t="n">
-        <v>4536</v>
+        <v>3695</v>
       </c>
       <c r="D6" t="n">
-        <v>1109</v>
+        <v>1176</v>
       </c>
       <c r="E6" t="n">
-        <v>2525</v>
+        <v>2371</v>
       </c>
       <c r="F6" t="n">
-        <v>1310</v>
+        <v>1196</v>
       </c>
       <c r="G6" t="n">
-        <v>5846</v>
+        <v>4891</v>
       </c>
       <c r="H6" t="n">
-        <v>7039</v>
+        <v>7108</v>
       </c>
       <c r="I6" t="n">
-        <v>1090</v>
+        <v>1036</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>626</v>
       </c>
       <c r="K6" t="n">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="L6" t="n">
-        <v>6674</v>
+        <v>5490</v>
       </c>
       <c r="M6" t="n">
-        <v>13425</v>
+        <v>13973</v>
       </c>
       <c r="N6" t="n">
-        <v>2485</v>
+        <v>2752</v>
       </c>
       <c r="O6" t="n">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="P6" t="n">
-        <v>1101</v>
+        <v>442</v>
       </c>
       <c r="Q6" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="R6" t="n">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="S6" t="n">
-        <v>1540</v>
+        <v>1507</v>
       </c>
       <c r="T6" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="U6" t="n">
-        <v>28189</v>
+        <v>27939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1398</v>
+        <v>1622</v>
       </c>
       <c r="C7" t="n">
-        <v>3121</v>
+        <v>3752</v>
       </c>
       <c r="D7" t="n">
-        <v>833</v>
+        <v>1234</v>
       </c>
       <c r="E7" t="n">
-        <v>2172</v>
+        <v>2416</v>
       </c>
       <c r="F7" t="n">
-        <v>878</v>
+        <v>1310</v>
       </c>
       <c r="G7" t="n">
-        <v>3999</v>
+        <v>5062</v>
       </c>
       <c r="H7" t="n">
-        <v>5926</v>
+        <v>7392</v>
       </c>
       <c r="I7" t="n">
-        <v>864</v>
+        <v>1022</v>
       </c>
       <c r="J7" t="n">
-        <v>365</v>
+        <v>644</v>
       </c>
       <c r="K7" t="n">
-        <v>731</v>
+        <v>975</v>
       </c>
       <c r="L7" t="n">
-        <v>4791</v>
+        <v>5604</v>
       </c>
       <c r="M7" t="n">
-        <v>10220</v>
+        <v>14634</v>
       </c>
       <c r="N7" t="n">
-        <v>2114</v>
+        <v>2867</v>
       </c>
       <c r="O7" t="n">
-        <v>1313</v>
+        <v>1695</v>
       </c>
       <c r="P7" t="n">
-        <v>990</v>
+        <v>471</v>
       </c>
       <c r="Q7" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="R7" t="n">
-        <v>224</v>
+        <v>382</v>
       </c>
       <c r="S7" t="n">
-        <v>1206</v>
+        <v>1719</v>
       </c>
       <c r="T7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U7" t="n">
-        <v>21682</v>
+        <v>29631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="C8" t="n">
-        <v>3369</v>
+        <v>3820</v>
       </c>
       <c r="D8" t="n">
-        <v>960</v>
+        <v>1309</v>
       </c>
       <c r="E8" t="n">
-        <v>2274</v>
+        <v>2421</v>
       </c>
       <c r="F8" t="n">
-        <v>974</v>
+        <v>1449</v>
       </c>
       <c r="G8" t="n">
-        <v>4343</v>
+        <v>5269</v>
       </c>
       <c r="H8" t="n">
-        <v>6387</v>
+        <v>7541</v>
       </c>
       <c r="I8" t="n">
-        <v>897</v>
+        <v>1051</v>
       </c>
       <c r="J8" t="n">
-        <v>447</v>
+        <v>693</v>
       </c>
       <c r="K8" t="n">
-        <v>821</v>
+        <v>959</v>
       </c>
       <c r="L8" t="n">
-        <v>5091</v>
+        <v>5744</v>
       </c>
       <c r="M8" t="n">
-        <v>12215</v>
+        <v>15383</v>
       </c>
       <c r="N8" t="n">
-        <v>2356</v>
+        <v>3033</v>
       </c>
       <c r="O8" t="n">
-        <v>1387</v>
+        <v>1725</v>
       </c>
       <c r="P8" t="n">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="Q8" t="n">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="R8" t="n">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="S8" t="n">
-        <v>1323</v>
+        <v>1844</v>
       </c>
       <c r="T8" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U8" t="n">
-        <v>24636</v>
+        <v>30798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1555</v>
+        <v>1624</v>
       </c>
       <c r="C9" t="n">
-        <v>3623</v>
+        <v>3951</v>
       </c>
       <c r="D9" t="n">
-        <v>1095</v>
+        <v>1454</v>
       </c>
       <c r="E9" t="n">
-        <v>2366</v>
+        <v>2373</v>
       </c>
       <c r="F9" t="n">
-        <v>1084</v>
+        <v>1548</v>
       </c>
       <c r="G9" t="n">
-        <v>4707</v>
+        <v>5499</v>
       </c>
       <c r="H9" t="n">
-        <v>6839</v>
+        <v>7532</v>
       </c>
       <c r="I9" t="n">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="J9" t="n">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="K9" t="n">
-        <v>889</v>
+        <v>942</v>
       </c>
       <c r="L9" t="n">
-        <v>5367</v>
+        <v>6046</v>
       </c>
       <c r="M9" t="n">
-        <v>13465</v>
+        <v>16290</v>
       </c>
       <c r="N9" t="n">
-        <v>2593</v>
+        <v>3304</v>
       </c>
       <c r="O9" t="n">
-        <v>1565</v>
+        <v>1861</v>
       </c>
       <c r="P9" t="n">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="Q9" t="n">
-        <v>167</v>
-      </c>
-      <c r="R9" t="n">
-        <v>318</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1449</v>
-      </c>
-      <c r="T9" t="n">
-        <v>58</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>26894</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1592</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3695</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1176</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2371</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1196</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4891</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7108</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1036</v>
-      </c>
-      <c r="J10" t="n">
-        <v>626</v>
-      </c>
-      <c r="K10" t="n">
-        <v>934</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5490</v>
-      </c>
-      <c r="M10" t="n">
-        <v>13973</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2752</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1629</v>
-      </c>
-      <c r="P10" t="n">
-        <v>442</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>172</v>
-      </c>
-      <c r="R10" t="n">
-        <v>338</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1507</v>
-      </c>
-      <c r="T10" t="n">
-        <v>59</v>
-      </c>
-      <c r="U10" t="n">
-        <v>27939</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1622</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3752</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2416</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1310</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5062</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7392</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1022</v>
-      </c>
-      <c r="J11" t="n">
-        <v>644</v>
-      </c>
-      <c r="K11" t="n">
-        <v>975</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5604</v>
-      </c>
-      <c r="M11" t="n">
-        <v>14634</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2867</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1695</v>
-      </c>
-      <c r="P11" t="n">
-        <v>471</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>188</v>
-      </c>
-      <c r="R11" t="n">
-        <v>382</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1719</v>
-      </c>
-      <c r="T11" t="n">
-        <v>52</v>
-      </c>
-      <c r="U11" t="n">
-        <v>29631</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1640</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3820</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1309</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2421</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1449</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5269</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7541</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1051</v>
-      </c>
-      <c r="J12" t="n">
-        <v>693</v>
-      </c>
-      <c r="K12" t="n">
-        <v>959</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5744</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15383</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3033</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1725</v>
-      </c>
-      <c r="P12" t="n">
-        <v>496</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>188</v>
-      </c>
-      <c r="R12" t="n">
-        <v>425</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1844</v>
-      </c>
-      <c r="T12" t="n">
-        <v>64</v>
-      </c>
-      <c r="U12" t="n">
-        <v>30798</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1624</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3951</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1454</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2373</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1548</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5499</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7532</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1004</v>
-      </c>
-      <c r="J13" t="n">
-        <v>652</v>
-      </c>
-      <c r="K13" t="n">
-        <v>942</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6046</v>
-      </c>
-      <c r="M13" t="n">
-        <v>16290</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3304</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1861</v>
-      </c>
-      <c r="P13" t="n">
-        <v>532</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>199</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1954</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
         <v>32027</v>
       </c>
     </row>
